--- a/1.5. 8Bit Computer ver2.0/commands.xlsx
+++ b/1.5. 8Bit Computer ver2.0/commands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2 private\Simulation\1.5. 8Bit Computer ver2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Github Repo\Computer_HTL\1.5. 8Bit Computer ver2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2967EF-7713-4669-B004-DBF2D81C1411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF46C623-3112-4D13-ABF8-5A97F0563371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3256ACAE-F419-450F-8F49-2183F1DCCADE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3256ACAE-F419-450F-8F49-2183F1DCCADE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -569,7 +569,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
